--- a/var/Tov_T/file_tt.xlsx
+++ b/var/Tov_T/file_tt.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t>Прирост</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>В22,5П4F100W6</t>
+  </si>
+  <si>
+    <t>B25П4</t>
+  </si>
+  <si>
+    <t>B22,5П4</t>
+  </si>
+  <si>
+    <t>B22,5П3</t>
   </si>
 </sst>
 </file>
@@ -217,21 +226,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,39 +233,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -616,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,418 +615,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="2">
-        <v>42016</v>
+        <v>42039</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5">
-        <v>28.1</v>
+        <v>34.5</v>
       </c>
       <c r="E3" s="1">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="12">
-        <f>ROUND(D3/E3*100,)</f>
-        <v>115</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G18" si="0">ROUND(D3/E3*100,)</f>
+        <v>125</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="2">
-        <v>41651</v>
+        <v>42043</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5">
-        <v>30.5</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>27.5</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="12">
-        <f>ROUND(D4/E4*100,)</f>
-        <v>111</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="2">
-        <v>42017</v>
+        <v>42048</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
-        <v>25.9</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="12">
-        <f>ROUND(D5/E5*100,)</f>
-        <v>106</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="2">
-        <v>42017</v>
+        <v>42049</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
-        <v>27.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>27.5</v>
+        <v>24.1</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="12">
-        <f>ROUND(D6/E6*100,)</f>
-        <v>100</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="2">
-        <v>42019</v>
+        <v>42051</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5">
-        <v>23.2</v>
+        <v>28.9</v>
       </c>
       <c r="E7" s="1">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="12">
-        <f>ROUND(D7/E7*100,)</f>
-        <v>95</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="2">
-        <v>42019</v>
+        <v>42051</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5">
-        <v>18.100000000000001</v>
+        <v>31.3</v>
       </c>
       <c r="E8" s="1">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="12">
-        <f>ROUND(D8/E8*100,)</f>
-        <v>110</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="2">
-        <v>42019</v>
+        <v>42052</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5">
-        <v>32.4</v>
+        <v>34.6</v>
       </c>
       <c r="E9" s="1">
-        <v>27.5</v>
+        <v>24.3</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="12">
-        <f>ROUND(D9/E9*100,)</f>
-        <v>118</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="2">
-        <v>42020</v>
+        <v>42052</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="E10" s="1">
-        <v>21.4</v>
+        <v>27.5</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="12">
-        <f>ROUND(D10/E10*100,)</f>
-        <v>130</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="2">
-        <v>42026</v>
+        <v>42053</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5">
-        <v>25.2</v>
+        <v>29.2</v>
       </c>
       <c r="E11" s="1">
-        <v>21.4</v>
+        <v>27.5</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="12">
-        <f>ROUND(D11/E11*100,)</f>
-        <v>118</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
-        <v>42026</v>
+        <v>42055</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
-        <v>25.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="12">
-        <f>ROUND(D12/E12*100,)</f>
-        <v>102</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
-        <v>42027</v>
+        <v>42056</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5">
-        <v>14.4</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="12">
-        <f>ROUND(D13/E13*100,)</f>
-        <v>87</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
-        <v>42027</v>
+        <v>42057</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5">
-        <v>24.1</v>
+        <v>37.5</v>
       </c>
       <c r="E14" s="1">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="12">
-        <f>ROUND(D14/E14*100,)</f>
-        <v>98</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
-        <v>42027</v>
+        <v>42059</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5">
-        <v>22.3</v>
+        <v>29.4</v>
       </c>
       <c r="E15" s="1">
-        <v>27.5</v>
+        <v>24.3</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="12">
-        <f>ROUND(D15/E15*100,)</f>
-        <v>81</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="2">
-        <v>42028</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5">
-        <v>33.4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>24.5</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="12">
-        <f>ROUND(D16/E16*100,)</f>
-        <v>136</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="G16" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="2">
-        <v>42035</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="5">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E17" s="1">
-        <v>27.5</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="12">
-        <f>ROUND(D17/E17*100,)</f>
-        <v>132</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="2">
-        <v>42035</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E18" s="1">
-        <v>27.5</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="12">
-        <f>ROUND(D18/E18*100,)</f>
-        <v>123</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="G18" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="2"/>
@@ -1054,13 +1011,13 @@
       <c r="D19" s="5"/>
       <c r="E19" s="1"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="12" t="e">
-        <f t="shared" ref="G19:G35" si="0">ROUND(D19/E19*100,)</f>
+      <c r="G19" s="7" t="e">
+        <f t="shared" ref="G19:G35" si="1">ROUND(D19/E19*100,)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="2"/>
@@ -1069,13 +1026,13 @@
       <c r="D20" s="5"/>
       <c r="E20" s="1"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G20" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="2"/>
@@ -1084,13 +1041,13 @@
       <c r="D21" s="5"/>
       <c r="E21" s="1"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G21" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="2"/>
@@ -1099,13 +1056,13 @@
       <c r="D22" s="5"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G22" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="2"/>
@@ -1114,13 +1071,13 @@
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G23" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="2"/>
@@ -1129,13 +1086,13 @@
       <c r="D24" s="5"/>
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G24" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="2"/>
@@ -1144,13 +1101,13 @@
       <c r="D25" s="5"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G25" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="2"/>
@@ -1159,13 +1116,13 @@
       <c r="D26" s="5"/>
       <c r="E26" s="1"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G26" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="2"/>
@@ -1174,13 +1131,13 @@
       <c r="D27" s="5"/>
       <c r="E27" s="1"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G27" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="2"/>
@@ -1189,13 +1146,13 @@
       <c r="D28" s="5"/>
       <c r="E28" s="1"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G28" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="2"/>
@@ -1204,13 +1161,13 @@
       <c r="D29" s="5"/>
       <c r="E29" s="1"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G29" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="2"/>
@@ -1219,13 +1176,13 @@
       <c r="D30" s="5"/>
       <c r="E30" s="1"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G30" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="2"/>
@@ -1234,13 +1191,13 @@
       <c r="D31" s="5"/>
       <c r="E31" s="1"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G31" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="2"/>
@@ -1249,13 +1206,13 @@
       <c r="D32" s="5"/>
       <c r="E32" s="1"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G32" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="2"/>
@@ -1264,13 +1221,13 @@
       <c r="D33" s="5"/>
       <c r="E33" s="1"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G33" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="2"/>
@@ -1279,13 +1236,13 @@
       <c r="D34" s="5"/>
       <c r="E34" s="1"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G34" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="2"/>
@@ -1294,13 +1251,13 @@
       <c r="D35" s="5"/>
       <c r="E35" s="1"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="G35" s="7" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J35"/>
@@ -1308,10 +1265,10 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>199.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>99.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1324,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1343,48 +1300,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1403,13 +1360,13 @@
         <v>27</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <f t="shared" ref="G3:G66" si="0">ROUND(D3/E3*100,)</f>
         <v>141</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="2">
@@ -1426,13 +1383,13 @@
         <v>16.5</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="2">
@@ -1449,13 +1406,13 @@
         <v>27</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="2">
@@ -1472,13 +1429,13 @@
         <v>16.5</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="2">
@@ -1495,13 +1452,13 @@
         <v>27</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="2">
@@ -1518,13 +1475,13 @@
         <v>27</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="2">
@@ -1541,13 +1498,13 @@
         <v>16.2</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="2">
@@ -1564,13 +1521,13 @@
         <v>27.3</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="2">
@@ -1587,13 +1544,13 @@
         <v>16.5</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
@@ -1610,13 +1567,13 @@
         <v>26.8</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
@@ -1633,13 +1590,13 @@
         <v>16.2</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
@@ -1656,13 +1613,13 @@
         <v>16.2</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
@@ -1679,13 +1636,13 @@
         <v>27.3</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="2">
@@ -1702,13 +1659,13 @@
         <v>24.1</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="2">
@@ -1725,13 +1682,13 @@
         <v>16.5</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="12">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="2">
@@ -1748,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="12">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="2">
@@ -1771,13 +1728,13 @@
         <v>27</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="12">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="2">
@@ -1794,13 +1751,13 @@
         <v>27</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="12">
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="2">
@@ -1817,13 +1774,13 @@
         <v>26.8</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="12">
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="2">
@@ -1840,13 +1797,13 @@
         <v>16.2</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="12">
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="2">
@@ -1863,13 +1820,13 @@
         <v>16.2</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="12">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="2">
@@ -1886,13 +1843,13 @@
         <v>16.2</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="12">
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="2">
@@ -1909,13 +1866,13 @@
         <v>27.3</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="12">
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="2">
@@ -1932,13 +1889,13 @@
         <v>21.4</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="12">
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="2">
@@ -1955,13 +1912,13 @@
         <v>32.700000000000003</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="12">
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="2">
@@ -1978,13 +1935,13 @@
         <v>27.3</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="12">
+      <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="2">
@@ -2001,13 +1958,13 @@
         <v>27.3</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="12">
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="2">
@@ -2024,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="12">
+      <c r="G30" s="7">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="2">
@@ -2047,13 +2004,13 @@
         <v>26.8</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="12">
+      <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="2">
@@ -2070,13 +2027,13 @@
         <v>27.3</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="12">
+      <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="2">
@@ -2093,13 +2050,13 @@
         <v>21.4</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="12">
+      <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="2">
@@ -2116,13 +2073,13 @@
         <v>16.5</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="12">
+      <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="2">
@@ -2139,13 +2096,13 @@
         <v>26.8</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="12">
+      <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="2">
@@ -2162,13 +2119,13 @@
         <v>16.5</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="12">
+      <c r="G36" s="7">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="2">
@@ -2185,13 +2142,13 @@
         <v>8</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="12">
+      <c r="G37" s="7">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="2">
@@ -2208,13 +2165,13 @@
         <v>27</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="12">
+      <c r="G38" s="7">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="2">
@@ -2231,13 +2188,13 @@
         <v>26.8</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="12">
+      <c r="G39" s="7">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="2">
@@ -2254,13 +2211,13 @@
         <v>24.1</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="12">
+      <c r="G40" s="7">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="2">
@@ -2277,13 +2234,13 @@
         <v>16.5</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="12">
+      <c r="G41" s="7">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="2">
@@ -2300,13 +2257,13 @@
         <v>19.2</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="12">
+      <c r="G42" s="7">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="2">
@@ -2323,13 +2280,13 @@
         <v>27</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="12">
+      <c r="G43" s="7">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="2">
@@ -2346,13 +2303,13 @@
         <v>24.5</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="12">
+      <c r="G44" s="7">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="2">
@@ -2369,13 +2326,13 @@
         <v>24.5</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="12">
+      <c r="G45" s="7">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="2">
@@ -2392,13 +2349,13 @@
         <v>16.2</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="12">
+      <c r="G46" s="7">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="2">
@@ -2415,13 +2372,13 @@
         <v>19.2</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="12">
+      <c r="G47" s="7">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="2">
@@ -2438,13 +2395,13 @@
         <v>19.2</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="12">
+      <c r="G48" s="7">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="2">
@@ -2461,13 +2418,13 @@
         <v>21.4</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="12">
+      <c r="G49" s="7">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="2">
@@ -2484,13 +2441,13 @@
         <v>21.4</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="12">
+      <c r="G50" s="7">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="2">
@@ -2507,13 +2464,13 @@
         <v>16.2</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="12">
+      <c r="G51" s="7">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="2">
@@ -2530,13 +2487,13 @@
         <v>19.2</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="12">
+      <c r="G52" s="7">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="2">
@@ -2553,13 +2510,13 @@
         <v>16.2</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="12">
+      <c r="G53" s="7">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="2">
@@ -2576,13 +2533,13 @@
         <v>19.2</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="12">
+      <c r="G54" s="7">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="2">
@@ -2599,13 +2556,13 @@
         <v>27</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="12">
+      <c r="G55" s="7">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="2">
@@ -2622,13 +2579,13 @@
         <v>26.8</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="12">
+      <c r="G56" s="7">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="2">
@@ -2645,13 +2602,13 @@
         <v>27.3</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="12">
+      <c r="G57" s="7">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="2">
@@ -2668,13 +2625,13 @@
         <v>21.4</v>
       </c>
       <c r="F58" s="6"/>
-      <c r="G58" s="12">
+      <c r="G58" s="7">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="2">
@@ -2691,13 +2648,13 @@
         <v>27.3</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="12">
+      <c r="G59" s="7">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="2">
@@ -2714,13 +2671,13 @@
         <v>27.3</v>
       </c>
       <c r="F60" s="6"/>
-      <c r="G60" s="12">
+      <c r="G60" s="7">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="2">
@@ -2737,13 +2694,13 @@
         <v>21.4</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="12">
+      <c r="G61" s="7">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="2">
@@ -2760,13 +2717,13 @@
         <v>27.3</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="12">
+      <c r="G62" s="7">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="2">
@@ -2783,13 +2740,13 @@
         <v>26.8</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="12">
+      <c r="G63" s="7">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="15.75">
       <c r="A64" s="2">
@@ -2806,13 +2763,13 @@
         <v>21.4</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="G64" s="12">
+      <c r="G64" s="7">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="2">
@@ -2829,13 +2786,13 @@
         <v>24.5</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="12">
+      <c r="G65" s="7">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="2">
@@ -2852,13 +2809,13 @@
         <v>21.4</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="G66" s="12">
+      <c r="G66" s="7">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="15.75">
       <c r="A67" s="2">
@@ -2875,13 +2832,13 @@
         <v>27.3</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="12">
+      <c r="G67" s="7">
         <f t="shared" ref="G67:G88" si="1">ROUND(D67/E67*100,)</f>
         <v>134</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" ht="15.75">
       <c r="A68" s="2">
@@ -2898,13 +2855,13 @@
         <v>27.3</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="G68" s="12">
+      <c r="G68" s="7">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" ht="15.75">
       <c r="A69" s="2">
@@ -2921,13 +2878,13 @@
         <v>27.3</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="G69" s="12">
+      <c r="G69" s="7">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="15.75">
       <c r="A70" s="2">
@@ -2944,13 +2901,13 @@
         <v>26.8</v>
       </c>
       <c r="F70" s="6"/>
-      <c r="G70" s="12">
+      <c r="G70" s="7">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="15.75">
       <c r="A71" s="2">
@@ -2967,13 +2924,13 @@
         <v>8</v>
       </c>
       <c r="F71" s="6"/>
-      <c r="G71" s="12">
+      <c r="G71" s="7">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="2">
@@ -2990,13 +2947,13 @@
         <v>27.3</v>
       </c>
       <c r="F72" s="6"/>
-      <c r="G72" s="12">
+      <c r="G72" s="7">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" ht="15.75">
       <c r="A73" s="2">
@@ -3013,13 +2970,13 @@
         <v>16.100000000000001</v>
       </c>
       <c r="F73" s="6"/>
-      <c r="G73" s="12">
+      <c r="G73" s="7">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74" spans="1:10" ht="15.75">
       <c r="A74" s="2">
@@ -3036,13 +2993,13 @@
         <v>26.8</v>
       </c>
       <c r="F74" s="6"/>
-      <c r="G74" s="12">
+      <c r="G74" s="7">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" spans="1:10" ht="15.75">
       <c r="A75" s="2">
@@ -3059,13 +3016,13 @@
         <v>16.2</v>
       </c>
       <c r="F75" s="6"/>
-      <c r="G75" s="12">
+      <c r="G75" s="7">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="15.75">
       <c r="A76" s="2">
@@ -3082,13 +3039,13 @@
         <v>21.4</v>
       </c>
       <c r="F76" s="6"/>
-      <c r="G76" s="12">
+      <c r="G76" s="7">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="15.75">
       <c r="A77" s="2">
@@ -3105,13 +3062,13 @@
         <v>27.3</v>
       </c>
       <c r="F77" s="6"/>
-      <c r="G77" s="12">
+      <c r="G77" s="7">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="15.75">
       <c r="A78" s="2">
@@ -3128,13 +3085,13 @@
         <v>27.3</v>
       </c>
       <c r="F78" s="6"/>
-      <c r="G78" s="12">
+      <c r="G78" s="7">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" ht="15.75">
       <c r="A79" s="2">
@@ -3151,13 +3108,13 @@
         <v>27.3</v>
       </c>
       <c r="F79" s="6"/>
-      <c r="G79" s="12">
+      <c r="G79" s="7">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="15.75">
       <c r="A80" s="2">
@@ -3174,13 +3131,13 @@
         <v>16.2</v>
       </c>
       <c r="F80" s="6"/>
-      <c r="G80" s="12">
+      <c r="G80" s="7">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="2">
@@ -3197,13 +3154,13 @@
         <v>27.3</v>
       </c>
       <c r="F81" s="6"/>
-      <c r="G81" s="12">
+      <c r="G81" s="7">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="2">
@@ -3220,13 +3177,13 @@
         <v>27.5</v>
       </c>
       <c r="F82" s="6"/>
-      <c r="G82" s="12">
+      <c r="G82" s="7">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" ht="15.75">
       <c r="A83" s="2">
@@ -3243,13 +3200,13 @@
         <v>21.4</v>
       </c>
       <c r="F83" s="6"/>
-      <c r="G83" s="12">
+      <c r="G83" s="7">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" ht="15.75">
       <c r="A84" s="2">
@@ -3266,13 +3223,13 @@
         <v>16.2</v>
       </c>
       <c r="F84" s="6"/>
-      <c r="G84" s="12">
+      <c r="G84" s="7">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
     </row>
     <row r="85" spans="1:10" ht="15.75">
       <c r="A85" s="2">
@@ -3289,13 +3246,13 @@
         <v>27.3</v>
       </c>
       <c r="F85" s="6"/>
-      <c r="G85" s="12">
+      <c r="G85" s="7">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:10" ht="15.75">
       <c r="A86" s="2">
@@ -3312,13 +3269,13 @@
         <v>27.3</v>
       </c>
       <c r="F86" s="6"/>
-      <c r="G86" s="12">
+      <c r="G86" s="7">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
     </row>
     <row r="87" spans="1:10" ht="15.75">
       <c r="A87" s="2">
@@ -3335,13 +3292,13 @@
         <v>27.3</v>
       </c>
       <c r="F87" s="6"/>
-      <c r="G87" s="12">
+      <c r="G87" s="7">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="15.75">
       <c r="A88" s="2">
@@ -3358,13 +3315,13 @@
         <v>27.3</v>
       </c>
       <c r="F88" s="6"/>
-      <c r="G88" s="12">
+      <c r="G88" s="7">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" ht="15.75">
       <c r="A89" s="2">
@@ -3381,13 +3338,13 @@
         <v>27.5</v>
       </c>
       <c r="F89" s="6"/>
-      <c r="G89" s="12">
-        <f>ROUND(D89/E89*100,)</f>
+      <c r="G89" s="7">
+        <f t="shared" ref="G89:G108" si="2">ROUND(D89/E89*100,)</f>
         <v>124</v>
       </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="15.75">
       <c r="A90" s="2">
@@ -3404,13 +3361,13 @@
         <v>27.5</v>
       </c>
       <c r="F90" s="6"/>
-      <c r="G90" s="12">
-        <f>ROUND(D90/E90*100,)</f>
+      <c r="G90" s="7">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="2">
@@ -3427,13 +3384,13 @@
         <v>27.5</v>
       </c>
       <c r="F91" s="6"/>
-      <c r="G91" s="12">
-        <f>ROUND(D91/E91*100,)</f>
+      <c r="G91" s="7">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" ht="15.75">
       <c r="A92" s="2">
@@ -3450,13 +3407,13 @@
         <v>27.5</v>
       </c>
       <c r="F92" s="6"/>
-      <c r="G92" s="12">
-        <f>ROUND(D92/E92*100,)</f>
+      <c r="G92" s="7">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="2">
@@ -3473,13 +3430,13 @@
         <v>24.5</v>
       </c>
       <c r="F93" s="6"/>
-      <c r="G93" s="12">
-        <f>ROUND(D93/E93*100,)</f>
+      <c r="G93" s="7">
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
     </row>
     <row r="94" spans="1:10" ht="15.75">
       <c r="A94" s="2">
@@ -3496,13 +3453,13 @@
         <v>27.5</v>
       </c>
       <c r="F94" s="6"/>
-      <c r="G94" s="12">
-        <f>ROUND(D94/E94*100,)</f>
+      <c r="G94" s="7">
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
     </row>
     <row r="95" spans="1:10" ht="15.75">
       <c r="A95" s="2">
@@ -3519,13 +3476,13 @@
         <v>24.5</v>
       </c>
       <c r="F95" s="6"/>
-      <c r="G95" s="12">
-        <f>ROUND(D95/E95*100,)</f>
+      <c r="G95" s="7">
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
     </row>
     <row r="96" spans="1:10" ht="15.75">
       <c r="A96" s="2">
@@ -3542,13 +3499,13 @@
         <v>27.5</v>
       </c>
       <c r="F96" s="6"/>
-      <c r="G96" s="12">
-        <f>ROUND(D96/E96*100,)</f>
+      <c r="G96" s="7">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
     </row>
     <row r="97" spans="1:10" ht="15.75">
       <c r="A97" s="2">
@@ -3565,13 +3522,13 @@
         <v>24.5</v>
       </c>
       <c r="F97" s="6"/>
-      <c r="G97" s="12">
-        <f>ROUND(D97/E97*100,)</f>
+      <c r="G97" s="7">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" ht="15.75">
       <c r="A98" s="2">
@@ -3588,13 +3545,13 @@
         <v>16.5</v>
       </c>
       <c r="F98" s="6"/>
-      <c r="G98" s="12">
-        <f>ROUND(D98/E98*100,)</f>
+      <c r="G98" s="7">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
     </row>
     <row r="99" spans="1:10" ht="15.75">
       <c r="A99" s="2">
@@ -3611,13 +3568,13 @@
         <v>27.5</v>
       </c>
       <c r="F99" s="6"/>
-      <c r="G99" s="12">
-        <f>ROUND(D99/E99*100,)</f>
+      <c r="G99" s="7">
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
     </row>
     <row r="100" spans="1:10" ht="15.75">
       <c r="A100" s="2">
@@ -3634,13 +3591,13 @@
         <v>21.4</v>
       </c>
       <c r="F100" s="6"/>
-      <c r="G100" s="12">
-        <f>ROUND(D100/E100*100,)</f>
+      <c r="G100" s="7">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
     </row>
     <row r="101" spans="1:10" ht="15.75">
       <c r="A101" s="2">
@@ -3657,13 +3614,13 @@
         <v>21.4</v>
       </c>
       <c r="F101" s="6"/>
-      <c r="G101" s="12">
-        <f>ROUND(D101/E101*100,)</f>
+      <c r="G101" s="7">
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
     </row>
     <row r="102" spans="1:10" ht="15.75">
       <c r="A102" s="2">
@@ -3680,13 +3637,13 @@
         <v>24.5</v>
       </c>
       <c r="F102" s="6"/>
-      <c r="G102" s="12">
-        <f>ROUND(D102/E102*100,)</f>
+      <c r="G102" s="7">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
     </row>
     <row r="103" spans="1:10" ht="15.75">
       <c r="A103" s="2">
@@ -3703,13 +3660,13 @@
         <v>16.5</v>
       </c>
       <c r="F103" s="6"/>
-      <c r="G103" s="12">
-        <f>ROUND(D103/E103*100,)</f>
+      <c r="G103" s="7">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
     </row>
     <row r="104" spans="1:10" ht="15.75">
       <c r="A104" s="2">
@@ -3726,13 +3683,13 @@
         <v>24.5</v>
       </c>
       <c r="F104" s="6"/>
-      <c r="G104" s="12">
-        <f>ROUND(D104/E104*100,)</f>
+      <c r="G104" s="7">
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
     </row>
     <row r="105" spans="1:10" ht="15.75">
       <c r="A105" s="2">
@@ -3749,13 +3706,13 @@
         <v>27.5</v>
       </c>
       <c r="F105" s="6"/>
-      <c r="G105" s="12">
-        <f>ROUND(D105/E105*100,)</f>
+      <c r="G105" s="7">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
     </row>
     <row r="106" spans="1:10" ht="15.75">
       <c r="A106" s="2">
@@ -3772,13 +3729,13 @@
         <v>24.5</v>
       </c>
       <c r="F106" s="6"/>
-      <c r="G106" s="12">
-        <f>ROUND(D106/E106*100,)</f>
+      <c r="G106" s="7">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
     </row>
     <row r="107" spans="1:10" ht="15.75">
       <c r="A107" s="2">
@@ -3795,13 +3752,13 @@
         <v>27.5</v>
       </c>
       <c r="F107" s="6"/>
-      <c r="G107" s="12">
-        <f>ROUND(D107/E107*100,)</f>
+      <c r="G107" s="7">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
     </row>
     <row r="108" spans="1:10" ht="15.75">
       <c r="A108" s="2">
@@ -3818,13 +3775,13 @@
         <v>27.5</v>
       </c>
       <c r="F108" s="6"/>
-      <c r="G108" s="12">
-        <f>ROUND(D108/E108*100,)</f>
+      <c r="G108" s="7">
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
     </row>
     <row r="109" spans="1:10" ht="15.75">
       <c r="A109" s="2"/>
@@ -3833,13 +3790,13 @@
       <c r="D109" s="5"/>
       <c r="E109" s="1"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="12" t="e">
-        <f t="shared" ref="G109:G125" si="2">ROUND(D109/E109*100,)</f>
+      <c r="G109" s="7" t="e">
+        <f t="shared" ref="G109:G125" si="3">ROUND(D109/E109*100,)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
     </row>
     <row r="110" spans="1:10" ht="15.75">
       <c r="A110" s="2"/>
@@ -3848,13 +3805,13 @@
       <c r="D110" s="5"/>
       <c r="E110" s="1"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G110" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
     </row>
     <row r="111" spans="1:10" ht="15.75">
       <c r="A111" s="2"/>
@@ -3863,13 +3820,13 @@
       <c r="D111" s="5"/>
       <c r="E111" s="1"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G111" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
     </row>
     <row r="112" spans="1:10" ht="15.75">
       <c r="A112" s="2"/>
@@ -3878,13 +3835,13 @@
       <c r="D112" s="5"/>
       <c r="E112" s="1"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G112" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
     </row>
     <row r="113" spans="1:10" ht="15.75">
       <c r="A113" s="2"/>
@@ -3893,13 +3850,13 @@
       <c r="D113" s="5"/>
       <c r="E113" s="1"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G113" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
     </row>
     <row r="114" spans="1:10" ht="15.75">
       <c r="A114" s="2"/>
@@ -3908,13 +3865,13 @@
       <c r="D114" s="5"/>
       <c r="E114" s="1"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G114" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
     </row>
     <row r="115" spans="1:10" ht="15.75">
       <c r="A115" s="2"/>
@@ -3923,13 +3880,13 @@
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G115" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
     </row>
     <row r="116" spans="1:10" ht="15.75">
       <c r="A116" s="2"/>
@@ -3938,13 +3895,13 @@
       <c r="D116" s="5"/>
       <c r="E116" s="1"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G116" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
     </row>
     <row r="117" spans="1:10" ht="15.75">
       <c r="A117" s="2"/>
@@ -3953,13 +3910,13 @@
       <c r="D117" s="5"/>
       <c r="E117" s="1"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G117" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
     </row>
     <row r="118" spans="1:10" ht="15.75">
       <c r="A118" s="2"/>
@@ -3968,13 +3925,13 @@
       <c r="D118" s="5"/>
       <c r="E118" s="1"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G118" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
     </row>
     <row r="119" spans="1:10" ht="15.75">
       <c r="A119" s="2"/>
@@ -3983,13 +3940,13 @@
       <c r="D119" s="5"/>
       <c r="E119" s="1"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G119" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" ht="15.75">
       <c r="A120" s="2"/>
@@ -3998,13 +3955,13 @@
       <c r="D120" s="5"/>
       <c r="E120" s="1"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G120" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
     </row>
     <row r="121" spans="1:10" ht="15.75">
       <c r="A121" s="2"/>
@@ -4013,13 +3970,13 @@
       <c r="D121" s="5"/>
       <c r="E121" s="1"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G121" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
     </row>
     <row r="122" spans="1:10" ht="15.75">
       <c r="A122" s="2"/>
@@ -4028,13 +3985,13 @@
       <c r="D122" s="5"/>
       <c r="E122" s="1"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G122" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
     </row>
     <row r="123" spans="1:10" ht="15.75">
       <c r="A123" s="2"/>
@@ -4043,13 +4000,13 @@
       <c r="D123" s="5"/>
       <c r="E123" s="1"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G123" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
     </row>
     <row r="124" spans="1:10" ht="15.75">
       <c r="A124" s="2"/>
@@ -4058,13 +4015,13 @@
       <c r="D124" s="5"/>
       <c r="E124" s="1"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G124" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
     </row>
     <row r="125" spans="1:10" ht="15.75">
       <c r="A125" s="2"/>
@@ -4073,13 +4030,13 @@
       <c r="D125" s="5"/>
       <c r="E125" s="1"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="12" t="e">
-        <f t="shared" si="2"/>
+      <c r="G125" s="7" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
     </row>
     <row r="126" spans="1:10" ht="15.75">
       <c r="A126" s="2"/>
@@ -4088,10 +4045,10 @@
       <c r="D126" s="5"/>
       <c r="E126" s="1"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
     </row>
     <row r="127" spans="1:10" ht="15.75">
       <c r="A127" s="2"/>
@@ -4100,10 +4057,10 @@
       <c r="D127" s="5"/>
       <c r="E127" s="1"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
     </row>
     <row r="128" spans="1:10" ht="15.75">
       <c r="A128" s="2"/>
@@ -4112,10 +4069,10 @@
       <c r="D128" s="5"/>
       <c r="E128" s="1"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
     </row>
     <row r="129" spans="1:10" ht="15.75">
       <c r="A129" s="2"/>
@@ -4124,10 +4081,10 @@
       <c r="D129" s="5"/>
       <c r="E129" s="1"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
     </row>
     <row r="130" spans="1:10" ht="15.75">
       <c r="A130" s="2"/>
@@ -4136,10 +4093,10 @@
       <c r="D130" s="5"/>
       <c r="E130" s="1"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
     </row>
     <row r="131" spans="1:10" ht="15.75">
       <c r="A131" s="2"/>
@@ -4148,10 +4105,10 @@
       <c r="D131" s="5"/>
       <c r="E131" s="1"/>
       <c r="F131" s="6"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
     </row>
     <row r="132" spans="1:10" ht="15.75">
       <c r="A132" s="2"/>
@@ -4160,10 +4117,10 @@
       <c r="D132" s="5"/>
       <c r="E132" s="1"/>
       <c r="F132" s="6"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
     </row>
     <row r="133" spans="1:10" ht="15.75">
       <c r="A133" s="2"/>
@@ -4172,10 +4129,10 @@
       <c r="D133" s="5"/>
       <c r="E133" s="1"/>
       <c r="F133" s="6"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
     </row>
     <row r="134" spans="1:10" ht="15.75">
       <c r="A134" s="2"/>
@@ -4184,10 +4141,10 @@
       <c r="D134" s="5"/>
       <c r="E134" s="1"/>
       <c r="F134" s="6"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
     </row>
     <row r="135" spans="1:10" ht="15.75">
       <c r="A135" s="2"/>
@@ -4196,10 +4153,10 @@
       <c r="D135" s="5"/>
       <c r="E135" s="1"/>
       <c r="F135" s="6"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
     </row>
     <row r="136" spans="1:10" ht="15.75">
       <c r="A136" s="2"/>
@@ -4208,10 +4165,10 @@
       <c r="D136" s="5"/>
       <c r="E136" s="1"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
     </row>
     <row r="137" spans="1:10" ht="15.75">
       <c r="A137" s="2"/>
@@ -4220,10 +4177,10 @@
       <c r="D137" s="5"/>
       <c r="E137" s="1"/>
       <c r="F137" s="6"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
     </row>
     <row r="138" spans="1:10" ht="15.75">
       <c r="A138" s="2"/>
@@ -4232,10 +4189,10 @@
       <c r="D138" s="5"/>
       <c r="E138" s="1"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
     </row>
     <row r="139" spans="1:10" ht="15.75">
       <c r="A139" s="2"/>
@@ -4244,10 +4201,10 @@
       <c r="D139" s="5"/>
       <c r="E139" s="1"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
     </row>
     <row r="140" spans="1:10" ht="15.75">
       <c r="A140" s="2"/>
@@ -4256,10 +4213,10 @@
       <c r="D140" s="5"/>
       <c r="E140" s="1"/>
       <c r="F140" s="6"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
     </row>
     <row r="141" spans="1:10" ht="15.75">
       <c r="A141" s="2"/>
@@ -4268,10 +4225,10 @@
       <c r="D141" s="5"/>
       <c r="E141" s="1"/>
       <c r="F141" s="6"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
     </row>
     <row r="142" spans="1:10" ht="15.75">
       <c r="A142" s="2"/>
@@ -4280,10 +4237,10 @@
       <c r="D142" s="5"/>
       <c r="E142" s="1"/>
       <c r="F142" s="6"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
     </row>
     <row r="143" spans="1:10" ht="15.75">
       <c r="A143" s="2"/>
@@ -4292,28 +4249,28 @@
       <c r="D143" s="5"/>
       <c r="E143" s="1"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G143">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>199.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>99.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G125">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>199.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>99.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/var/Tov_T/file_tt.xlsx
+++ b/var/Tov_T/file_tt.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$2:$J$35</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
   <si>
     <t>Прирост</t>
   </si>
@@ -89,13 +89,10 @@
     <t>В22,5П4F100W6</t>
   </si>
   <si>
-    <t>B25П4</t>
+    <t>В22,5П4</t>
   </si>
   <si>
-    <t>B22,5П4</t>
-  </si>
-  <si>
-    <t>B22,5П3</t>
+    <t>В22,5П3</t>
   </si>
 </sst>
 </file>
@@ -230,9 +227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -247,6 +241,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -615,48 +612,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -665,7 +662,7 @@
         <v>42039</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5">
@@ -688,7 +685,7 @@
         <v>42043</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5">
@@ -711,7 +708,7 @@
         <v>42048</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
@@ -734,7 +731,7 @@
         <v>42049</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
@@ -757,7 +754,7 @@
         <v>42051</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5">
@@ -780,7 +777,7 @@
         <v>42051</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5">
@@ -803,7 +800,7 @@
         <v>42052</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5">
@@ -826,7 +823,7 @@
         <v>42052</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5">
@@ -849,7 +846,7 @@
         <v>42053</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5">
@@ -872,7 +869,7 @@
         <v>42055</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
@@ -895,7 +892,7 @@
         <v>42056</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5">
@@ -918,7 +915,7 @@
         <v>42057</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5">
@@ -941,7 +938,7 @@
         <v>42059</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5">
@@ -1300,48 +1297,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
     </row>

--- a/var/Tov_T/file_tt.xlsx
+++ b/var/Tov_T/file_tt.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barashkina.n\Documents\статистика ТЕКА\Январь, Февраль, Март 2015\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19035" windowHeight="11505"/>
   </bookViews>
@@ -11,14 +16,14 @@
     <sheet name="Лист1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$2:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$2:$J$92</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
   <si>
     <t>Прирост</t>
   </si>
@@ -89,16 +94,22 @@
     <t>В22,5П4F100W6</t>
   </si>
   <si>
+    <t>B22,5П4</t>
+  </si>
+  <si>
+    <t>B22,5П3</t>
+  </si>
+  <si>
     <t>В22,5П4</t>
   </si>
   <si>
-    <t>В22,5П3</t>
+    <t>В20П3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -145,7 +156,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +173,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,6 +257,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +406,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -589,12 +617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,18 +640,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="9" t="s">
@@ -659,609 +687,1824 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="2">
-        <v>42039</v>
+        <v>42009</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="5">
-        <v>34.5</v>
-      </c>
-      <c r="E3" s="1">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5">
         <v>27.5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G18" si="0">ROUND(D3/E3*100,)</f>
-        <v>125</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+        <f t="shared" ref="G3:G10" si="0">ROUND(D3/E3*100,)</f>
+        <v>124</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="2">
-        <v>42043</v>
+        <v>42010</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="5">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="E4" s="5">
         <v>27.5</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="2">
-        <v>42048</v>
+        <v>42010</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="5">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>39.1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="F5" s="15"/>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="2">
-        <v>42049</v>
+        <v>42013</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="5">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E6" s="1">
-        <v>24.1</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E6" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="F6" s="15"/>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="2">
-        <v>42051</v>
+        <v>42016</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="5">
-        <v>28.9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>28.1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="F7" s="15"/>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="2">
-        <v>42051</v>
+        <v>42016</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5">
-        <v>31.3</v>
-      </c>
-      <c r="E8" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="E8" s="5">
         <v>27.5</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="2">
-        <v>42052</v>
+        <v>42017</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="5">
-        <v>34.6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>25.9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="2">
-        <v>42052</v>
+        <v>42017</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5">
-        <v>27.2</v>
-      </c>
-      <c r="E10" s="1">
         <v>27.5</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="2">
-        <v>42053</v>
+        <v>42019</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="5">
-        <v>29.2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>23.2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+        <f t="shared" ref="G11:G24" si="1">ROUND(D11/E11*100,)</f>
+        <v>95</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
-        <v>42055</v>
+        <v>42019</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="5">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
-        <v>42056</v>
+        <v>42019</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="5">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="E13" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="E13" s="5">
         <v>27.5</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
-        <v>42057</v>
+        <v>42020</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="5">
-        <v>37.5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>27.8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
-        <v>42059</v>
+        <v>42026</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="5">
-        <v>29.4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>25.2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="A16" s="2">
+        <v>42026</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="A17" s="2">
+        <v>42026</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E17" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="A18" s="2">
+        <v>42027</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7" t="e">
-        <f t="shared" ref="G19:G35" si="1">ROUND(D19/E19*100,)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="A19" s="2">
+        <v>42027</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="5">
+        <v>24.1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7" t="e">
+      <c r="A20" s="2">
+        <v>42027</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5">
+        <v>22.3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7" t="e">
+      <c r="A21" s="2">
+        <v>42028</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="5">
+        <v>33.4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="e">
+      <c r="A22" s="2">
+        <v>42035</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="5">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E22" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7" t="e">
+      <c r="A23" s="2">
+        <v>42035</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E23" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="2">
+        <v>42039</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="7" t="e">
+      <c r="G24" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>125</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2">
+        <v>42043</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="5">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:G36" si="2">ROUND(D25/E25*100,)</f>
+        <v>138</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="2">
+        <v>42048</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="5">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1">
+        <v>24.3</v>
+      </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G26" s="7">
+        <f t="shared" si="2"/>
+        <v>148</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="2">
+        <v>42049</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E27" s="1">
+        <v>24.1</v>
+      </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G27" s="7">
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="2">
+        <v>42051</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="5">
+        <v>28.9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>24.3</v>
+      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G28" s="7">
+        <f t="shared" si="2"/>
+        <v>119</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="2">
+        <v>42051</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G29" s="7">
+        <f t="shared" si="2"/>
+        <v>114</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="2">
+        <v>42052</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="5">
+        <v>34.6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>24.3</v>
+      </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G30" s="7">
+        <f t="shared" si="2"/>
+        <v>142</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="2">
+        <v>42052</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G31" s="7">
+        <f t="shared" si="2"/>
+        <v>99</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="2">
+        <v>42053</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="5">
+        <v>29.2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G32" s="7">
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="2">
+        <v>42055</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="5">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G33" s="7">
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="2">
+        <v>42056</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E34" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G34" s="7">
+        <f t="shared" si="2"/>
+        <v>123</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="2">
+        <v>42057</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>27.5</v>
+      </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G35" s="7">
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
+    <row r="36" spans="1:10" ht="15.75">
+      <c r="A36" s="2">
+        <v>42059</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" s="2">
+        <v>42060</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E37" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7">
+        <f t="shared" ref="G37:G39" si="3">ROUND(D37/E37*100,)</f>
+        <v>128</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
+      <c r="A38" s="2">
+        <v>42062</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5">
+        <v>31.6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75">
+      <c r="A39" s="2">
+        <v>42062</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
+        <v>34.4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75">
+      <c r="A40" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7">
+        <f t="shared" ref="G40:G92" si="4">ROUND(D40/E40*100,)</f>
+        <v>121</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75">
+      <c r="A41" s="2">
+        <v>42066</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5">
+        <v>44.6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="A42" s="2">
+        <v>42067</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5">
+        <v>39.1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75">
+      <c r="A43" s="2">
+        <v>42069</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="A44" s="2">
+        <v>42070</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75">
+      <c r="A45" s="2">
+        <v>42071</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5">
+        <v>45.8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75">
+      <c r="A46" s="2">
+        <v>42073</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E46" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75">
+      <c r="A47" s="2">
+        <v>42074</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E47" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75">
+      <c r="A48" s="2">
+        <v>42075</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E48" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
+      <c r="A49" s="2">
+        <v>42076</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5">
+        <v>36.4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
+      <c r="A50" s="2">
+        <v>42077</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
+      <c r="A51" s="2">
+        <v>42078</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
+      <c r="A52" s="2">
+        <v>42081</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75">
+      <c r="A53" s="2">
+        <v>42083</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75">
+      <c r="A54" s="2">
+        <v>42083</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="E54" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
+      <c r="A55" s="2">
+        <v>42084</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5">
+        <v>35.9</v>
+      </c>
+      <c r="E55" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="A56" s="2">
+        <v>42087</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="E56" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
+      <c r="A57" s="2">
+        <v>42088</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="5">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E57" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
+      <c r="A58" s="2">
+        <v>42089</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="7">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
+      <c r="A59" s="2">
+        <v>42091</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="7">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="A60" s="2">
+        <v>42093</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="7">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J35"/>
+  <autoFilter ref="A2:J92"/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G35">
+  <conditionalFormatting sqref="G3:G92">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>199.5</formula>
     </cfRule>
@@ -1275,7 +2518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1297,18 +2540,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="9" t="s">

--- a/var/Tov_T/file_tt.xlsx
+++ b/var/Tov_T/file_tt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barashkina.n\Documents\статистика ТЕКА\Январь, Февраль, Март 2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barashkina.n\Documents\статистика ТЕКА\Февраль, Март, Апрель 2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Лист1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$2:$J$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист3!$A$2:$J$35</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
   <si>
     <t>Прирост</t>
   </si>
@@ -94,6 +94,9 @@
     <t>В22,5П4F100W6</t>
   </si>
   <si>
+    <t>B25П4</t>
+  </si>
+  <si>
     <t>B22,5П4</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>В22,5П4</t>
   </si>
   <si>
-    <t>В20П3</t>
+    <t>В22,5П3</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +176,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,15 +254,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,11 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,18 +628,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="9" t="s">
@@ -687,505 +675,505 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="2">
-        <v>42009</v>
+        <v>42039</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="5">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F3" s="15"/>
+        <v>34.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G10" si="0">ROUND(D3/E3*100,)</f>
-        <v>124</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+        <f t="shared" ref="G3" si="0">ROUND(D3/E3*100,)</f>
+        <v>125</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="2">
-        <v>42010</v>
+        <v>42043</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="5">
-        <v>47.9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+        <f t="shared" ref="G4:G15" si="1">ROUND(D4/E4*100,)</f>
+        <v>138</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="2">
-        <v>42010</v>
+        <v>42048</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="5">
-        <v>39.1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>26.8</v>
-      </c>
-      <c r="F5" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="2">
-        <v>42013</v>
+        <v>42049</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="5">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E6" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F6" s="15"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="2">
-        <v>42016</v>
+        <v>42051</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="5">
-        <v>28.1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="F7" s="15"/>
+        <v>28.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="2">
-        <v>42016</v>
+        <v>42051</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="5">
-        <v>30.5</v>
-      </c>
-      <c r="E8" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F8" s="15"/>
+        <v>31.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="2">
-        <v>42017</v>
+        <v>42052</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="5">
-        <v>25.9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="F9" s="15"/>
+        <v>34.6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="2">
-        <v>42017</v>
+        <v>42052</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>27.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="2">
-        <v>42019</v>
+        <v>42053</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="5">
-        <v>23.2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="F11" s="15"/>
+        <v>29.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="7">
-        <f t="shared" ref="G11:G24" si="1">ROUND(D11/E11*100,)</f>
-        <v>95</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
-        <v>42019</v>
+        <v>42055</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="5">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E12" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F12" s="15"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="7">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+        <v>132</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
-        <v>42019</v>
+        <v>42056</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="5">
-        <v>32.4</v>
-      </c>
-      <c r="E13" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F13" s="15"/>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+        <v>123</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
-        <v>42020</v>
+        <v>42057</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="5">
-        <v>27.8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>21.4</v>
-      </c>
-      <c r="F14" s="15"/>
+        <v>37.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="7">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+        <v>136</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
-        <v>42026</v>
+        <v>42059</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="5">
-        <v>25.2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>21.4</v>
-      </c>
-      <c r="F15" s="15"/>
+        <v>29.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="7">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="2">
-        <v>42026</v>
+        <v>42060</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="5">
-        <v>25.1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="F16" s="15"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+        <f t="shared" ref="G16:G18" si="2">ROUND(D16/E16*100,)</f>
+        <v>128</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="2">
-        <v>42026</v>
+        <v>42062</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="5">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="E17" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F17" s="15"/>
+        <v>31.6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="2">
-        <v>42027</v>
+        <v>42062</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="5">
-        <v>14.4</v>
-      </c>
-      <c r="E18" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F18" s="15"/>
+        <v>34.4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="2">
-        <v>42027</v>
+        <v>42064</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="5">
-        <v>24.1</v>
-      </c>
-      <c r="E19" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="E19" s="1">
         <v>24.5</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="7">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+        <f t="shared" ref="G19:G71" si="3">ROUND(D19/E19*100,)</f>
+        <v>121</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="2">
-        <v>42027</v>
+        <v>42066</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="5">
-        <v>22.3</v>
-      </c>
-      <c r="E20" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F20" s="15"/>
+        <v>44.6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="2">
-        <v>42028</v>
+        <v>42067</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="5">
-        <v>33.4</v>
-      </c>
-      <c r="E21" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="F21" s="15"/>
+        <v>39.1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="7">
-        <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="2">
-        <v>42035</v>
+        <v>42069</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="5">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E22" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F22" s="15"/>
+        <v>32.1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="7">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="2">
-        <v>42035</v>
+        <v>42070</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="5">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E23" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="F23" s="15"/>
+        <v>29.7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="7">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="2">
-        <v>42039</v>
+        <v>42071</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
-        <v>34.5</v>
+        <v>45.8</v>
       </c>
       <c r="E24" s="1">
         <v>27.5</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="7">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>167</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1193,22 +1181,22 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="2">
-        <v>42043</v>
+        <v>42073</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5">
-        <v>38</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
-        <f t="shared" ref="G25:G36" si="2">ROUND(D25/E25*100,)</f>
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1216,22 +1204,22 @@
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="2">
-        <v>42048</v>
+        <v>42074</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5">
-        <v>36</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>24.3</v>
+        <v>27.5</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
-        <f t="shared" si="2"/>
-        <v>148</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1239,22 +1227,22 @@
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="2">
-        <v>42049</v>
+        <v>42075</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5">
-        <v>34.700000000000003</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E27" s="1">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
-        <f t="shared" si="2"/>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>137</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1262,22 +1250,22 @@
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="2">
-        <v>42051</v>
+        <v>42076</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5">
-        <v>28.9</v>
+        <v>36.4</v>
       </c>
       <c r="E28" s="1">
-        <v>24.3</v>
+        <v>27.5</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
-        <f t="shared" si="2"/>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1285,22 +1273,22 @@
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="2">
-        <v>42051</v>
+        <v>42077</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5">
-        <v>31.3</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1">
         <v>27.5</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
-        <f t="shared" si="2"/>
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1308,22 +1296,22 @@
     </row>
     <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="2">
-        <v>42052</v>
+        <v>42078</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5">
-        <v>34.6</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1">
-        <v>24.3</v>
+        <v>27.5</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="7">
-        <f t="shared" si="2"/>
-        <v>142</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1331,22 +1319,22 @@
     </row>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="2">
-        <v>42052</v>
+        <v>42081</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5">
-        <v>27.2</v>
+        <v>35.1</v>
       </c>
       <c r="E31" s="1">
         <v>27.5</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="7">
-        <f t="shared" si="2"/>
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>128</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1354,22 +1342,22 @@
     </row>
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="2">
-        <v>42053</v>
+        <v>42114</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5">
-        <v>29.2</v>
+        <v>32.1</v>
       </c>
       <c r="E32" s="1">
         <v>27.5</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="7">
-        <f t="shared" si="2"/>
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1377,22 +1365,22 @@
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="2">
-        <v>42055</v>
+        <v>42114</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5">
-        <v>36.200000000000003</v>
+        <v>35.6</v>
       </c>
       <c r="E33" s="1">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
-        <f t="shared" si="2"/>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -1400,22 +1388,22 @@
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="2">
-        <v>42056</v>
+        <v>42115</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5">
-        <v>33.700000000000003</v>
+        <v>35.9</v>
       </c>
       <c r="E34" s="1">
         <v>27.5</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
-        <f t="shared" si="2"/>
-        <v>123</v>
+        <f t="shared" si="3"/>
+        <v>131</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1423,22 +1411,22 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="2">
-        <v>42057</v>
+        <v>42087</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5">
-        <v>37.5</v>
+        <v>25.7</v>
       </c>
       <c r="E35" s="1">
         <v>27.5</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
-        <f t="shared" si="2"/>
-        <v>136</v>
+        <f t="shared" si="3"/>
+        <v>93</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -1446,21 +1434,21 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="2">
-        <v>42059</v>
+        <v>42088</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="5">
-        <v>29.4</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E36" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="F36" s="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="H36" s="8"/>
@@ -1469,22 +1457,22 @@
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="2">
-        <v>42060</v>
+        <v>42089</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="5">
-        <v>35.299999999999997</v>
+        <v>23.8</v>
       </c>
       <c r="E37" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="F37" s="6"/>
+        <v>24.3</v>
+      </c>
+      <c r="F37" s="8"/>
       <c r="G37" s="7">
-        <f t="shared" ref="G37:G39" si="3">ROUND(D37/E37*100,)</f>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1492,22 +1480,22 @@
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="2">
-        <v>42062</v>
+        <v>42091</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="5">
-        <v>31.6</v>
+        <v>37.5</v>
       </c>
       <c r="E38" s="1">
-        <v>26.8</v>
-      </c>
-      <c r="F38" s="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="7">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -1515,22 +1503,22 @@
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="2">
-        <v>42062</v>
+        <v>42093</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="5">
-        <v>34.4</v>
+        <v>38.4</v>
       </c>
       <c r="E39" s="1">
         <v>27.5</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="7">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -1538,22 +1526,22 @@
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="2">
-        <v>42064</v>
+        <v>42096</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C40" s="8"/>
       <c r="D40" s="5">
-        <v>29.6</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E40" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="F40" s="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="7">
-        <f t="shared" ref="G40:G92" si="4">ROUND(D40/E40*100,)</f>
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -1561,22 +1549,22 @@
     </row>
     <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="2">
-        <v>42066</v>
+        <v>42097</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="5">
-        <v>44.6</v>
+        <v>38.1</v>
       </c>
       <c r="E41" s="1">
         <v>27.5</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="7">
-        <f t="shared" si="4"/>
-        <v>162</v>
+        <f t="shared" si="3"/>
+        <v>139</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -1584,22 +1572,22 @@
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="2">
-        <v>42067</v>
+        <v>42098</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="5">
-        <v>39.1</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E42" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="F42" s="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="7">
-        <f t="shared" si="4"/>
-        <v>142</v>
+        <f t="shared" si="3"/>
+        <v>106</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -1607,22 +1595,22 @@
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="2">
-        <v>42069</v>
+        <v>42098</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="5">
-        <v>32.1</v>
+        <v>36.6</v>
       </c>
       <c r="E43" s="1">
         <v>27.5</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="7">
-        <f t="shared" si="4"/>
-        <v>117</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -1630,21 +1618,21 @@
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="2">
-        <v>42070</v>
+        <v>42100</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="5">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E44" s="1">
         <v>27.5</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="H44" s="8"/>
@@ -1653,22 +1641,22 @@
     </row>
     <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="2">
-        <v>42071</v>
+        <v>42101</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="5">
-        <v>45.8</v>
+        <v>37.6</v>
       </c>
       <c r="E45" s="1">
         <v>27.5</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="7">
-        <f t="shared" si="4"/>
-        <v>167</v>
+        <f t="shared" si="3"/>
+        <v>137</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -1676,22 +1664,22 @@
     </row>
     <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="2">
-        <v>42073</v>
+        <v>42105</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="5">
-        <v>38.700000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E46" s="1">
-        <v>26.8</v>
-      </c>
-      <c r="F46" s="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="F46" s="8"/>
       <c r="G46" s="7">
-        <f t="shared" si="4"/>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -1699,22 +1687,22 @@
     </row>
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="2">
-        <v>42074</v>
+        <v>42107</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="5">
-        <v>36.200000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E47" s="1">
         <v>27.5</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="7">
-        <f t="shared" si="4"/>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -1722,22 +1710,22 @@
     </row>
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="2">
-        <v>42075</v>
+        <v>42108</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C48" s="8"/>
       <c r="D48" s="5">
-        <v>33.200000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E48" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="F48" s="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="7">
-        <f t="shared" si="4"/>
-        <v>137</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -1745,22 +1733,22 @@
     </row>
     <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="2">
-        <v>42076</v>
+        <v>42109</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="5">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E49" s="1">
         <v>27.5</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="7">
-        <f t="shared" si="4"/>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -1768,22 +1756,22 @@
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="2">
-        <v>42077</v>
+        <v>42110</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="5">
-        <v>33</v>
+        <v>37.5</v>
       </c>
       <c r="E50" s="1">
         <v>27.5</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="7">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>136</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -1791,22 +1779,22 @@
     </row>
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="2">
-        <v>42078</v>
+        <v>42111</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="5">
-        <v>38</v>
+        <v>42.2</v>
       </c>
       <c r="E51" s="1">
         <v>27.5</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="7">
-        <f t="shared" si="4"/>
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>153</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -1814,22 +1802,22 @@
     </row>
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="2">
-        <v>42081</v>
+        <v>42114</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="5">
-        <v>35.1</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E52" s="1">
         <v>27.5</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="7">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>137</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -1837,22 +1825,22 @@
     </row>
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="2">
-        <v>42083</v>
+        <v>42115</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="5">
-        <v>32.1</v>
+        <v>41.7</v>
       </c>
       <c r="E53" s="1">
         <v>27.5</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="7">
-        <f t="shared" si="4"/>
-        <v>117</v>
+        <f t="shared" si="3"/>
+        <v>152</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -1860,22 +1848,22 @@
     </row>
     <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="2">
-        <v>42083</v>
+        <v>42117</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C54" s="8"/>
       <c r="D54" s="5">
-        <v>35.6</v>
+        <v>38.4</v>
       </c>
       <c r="E54" s="1">
-        <v>26.8</v>
-      </c>
-      <c r="F54" s="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="F54" s="8"/>
       <c r="G54" s="7">
-        <f t="shared" si="4"/>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -1883,22 +1871,22 @@
     </row>
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="2">
-        <v>42084</v>
+        <v>42118</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="5">
-        <v>35.9</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E55" s="1">
         <v>27.5</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="7">
-        <f t="shared" si="4"/>
-        <v>131</v>
+        <f t="shared" si="3"/>
+        <v>141</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -1906,22 +1894,22 @@
     </row>
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="2">
-        <v>42087</v>
+        <v>42119</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="5">
-        <v>25.7</v>
+        <v>37.9</v>
       </c>
       <c r="E56" s="1">
         <v>27.5</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="7">
-        <f t="shared" si="4"/>
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -1929,22 +1917,22 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="2">
-        <v>42088</v>
+        <v>42119</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="5">
-        <v>33.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="E57" s="1">
         <v>27.5</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="7">
-        <f t="shared" si="4"/>
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -1952,22 +1940,22 @@
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="2">
-        <v>42089</v>
+        <v>42120</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="5">
-        <v>23.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E58" s="1">
-        <v>24.3</v>
+        <v>27.5</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="7">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>145</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -1975,22 +1963,22 @@
     </row>
     <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="2">
-        <v>42091</v>
+        <v>42122</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="5">
-        <v>37.5</v>
+        <v>23.5</v>
       </c>
       <c r="E59" s="1">
-        <v>27.5</v>
+        <v>24.8</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="7">
-        <f t="shared" si="4"/>
-        <v>136</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -1998,82 +1986,114 @@
     </row>
     <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="2">
-        <v>42093</v>
+        <v>42122</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="5">
-        <v>38.4</v>
+        <v>8.6</v>
       </c>
       <c r="E60" s="1">
-        <v>27.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="7">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="15.75">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="2">
+        <v>42122</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C61" s="8"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="5">
+        <v>35.9</v>
+      </c>
+      <c r="E61" s="1">
+        <v>26.8</v>
+      </c>
       <c r="F61" s="8"/>
-      <c r="G61" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G61" s="7">
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="15.75">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="2">
+        <v>42123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C62" s="8"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E62" s="1">
+        <v>26.8</v>
+      </c>
       <c r="F62" s="8"/>
-      <c r="G62" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G62" s="7">
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="15.75">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C63" s="8"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="5">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1">
+        <v>26.8</v>
+      </c>
       <c r="F63" s="8"/>
-      <c r="G63" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G63" s="7">
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="15.75">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C64" s="8"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>26.8</v>
+      </c>
       <c r="F64" s="8"/>
-      <c r="G64" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G64" s="7">
+        <f t="shared" si="3"/>
+        <v>143</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -2087,7 +2107,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="8"/>
@@ -2102,7 +2122,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="8"/>
       <c r="G66" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H66" s="8"/>
@@ -2117,7 +2137,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="8"/>
       <c r="G67" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="8"/>
@@ -2132,7 +2152,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="8"/>
       <c r="G68" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="8"/>
@@ -2147,7 +2167,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="8"/>
       <c r="G69" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="8"/>
@@ -2162,7 +2182,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="8"/>
       <c r="G70" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="8"/>
@@ -2177,334 +2197,19 @@
       <c r="E71" s="1"/>
       <c r="F71" s="8"/>
       <c r="G71" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J92"/>
+  <autoFilter ref="A2:J35"/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G92">
+  <conditionalFormatting sqref="G3:G71">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>199.5</formula>
     </cfRule>
@@ -2540,18 +2245,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="9" t="s">
